--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2537F584-C7BD-4F78-9CC3-953EF6B60B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57244EE7-3861-4E98-BFBF-CA82EFA10443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -54,12 +54,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{5D38D69B-4E2A-4FB9-8442-C65999820D3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+no reason provided</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -67,9 +91,6 @@
     <t>PRESENT</t>
   </si>
   <si>
-    <t>Snehal</t>
-  </si>
-  <si>
     <t>Supriya Wavare</t>
   </si>
   <si>
@@ -92,6 +113,12 @@
   </si>
   <si>
     <t>ABSENT</t>
+  </si>
+  <si>
+    <t>Ashwini Kurapati</t>
+  </si>
+  <si>
+    <t>Snehal(TL)</t>
   </si>
 </sst>
 </file>
@@ -484,9 +511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,28 +533,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -557,11 +587,40 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57244EE7-3861-4E98-BFBF-CA82EFA10443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63034116-B808-4F8F-A386-7551899407FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -78,12 +78,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{A34880FD-DDCC-4D38-A46D-86BA9E6F328E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No reason provided</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{F3063B8B-2A4F-4A1F-A12D-91D87EDDD4AA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No reason provided</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -509,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -622,6 +670,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63034116-B808-4F8F-A386-7551899407FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628286B-E713-42F2-9F32-ABCF95FF8452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -126,12 +126,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{F4D853FF-01A6-4625-8833-68A41D17B23E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No reason provided</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{36729825-9920-437D-9385-5BBF89F48A94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No reason Provided</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{776527B2-401E-46DD-BC90-FD3BD2BBC85F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Because of some work.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -557,11 +629,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -702,6 +774,38 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8628286B-E713-42F2-9F32-ABCF95FF8452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3873A218-ABF1-4DF7-B40B-85B1785D12D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Snehal(TL)</t>
+  </si>
+  <si>
+    <t>Priya Ghavne</t>
   </si>
 </sst>
 </file>
@@ -629,23 +632,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -679,6 +683,9 @@
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -804,6 +811,41 @@
       </c>
       <c r="J5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45145</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3873A218-ABF1-4DF7-B40B-85B1785D12D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A902DE-89CD-4CFA-A5FA-AD5467068378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -198,12 +198,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{C0EC74B2-C316-4E92-B7EB-475E16FEDEE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+new member</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{6E3E335D-C0A7-4488-9DD9-D7FC9EDDC53A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No reason provided</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{D13E68A5-E3F9-49CE-9226-3C4EC2472E89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No reason provided</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -632,11 +704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -848,6 +920,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45146</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A902DE-89CD-4CFA-A5FA-AD5467068378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48425DE7-E7BA-4EEA-962B-012A0E0FDF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -270,12 +270,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{D869EEE4-6174-4D1B-8002-757FCCEBE671}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Because of Office.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -704,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -722,6 +746,7 @@
     <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="20.25" customWidth="1"/>
     <col min="10" max="10" width="17.625" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -952,6 +977,41 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48425DE7-E7BA-4EEA-962B-012A0E0FDF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2267BDD-0ECC-4D1A-9565-0DBB850314B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -294,12 +294,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{11940EE5-D802-4876-860A-9A2568F86026}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+no reason provided</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{78A50979-E662-425B-A31F-D882F2603151}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No reason provided</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -728,11 +776,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1015,6 +1063,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2267BDD-0ECC-4D1A-9565-0DBB850314B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD9A3C-C732-48D9-B56A-6A01E4FD4E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -342,12 +342,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{DAC7088B-1658-4F7C-9274-C86045E2D9ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to some work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{20464DE1-7CF3-4091-82AC-24E2B7059117}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No reason provided</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{03E14FDE-03F0-4600-8C61-E5F030D19EDC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No reason provided</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{77E70027-5CBD-47D0-8C41-9A9D986590F9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No reason provided</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -382,10 +478,10 @@
     <t>Ashwini Kurapati</t>
   </si>
   <si>
-    <t>Snehal(TL)</t>
+    <t>Priya Ghavne</t>
   </si>
   <si>
-    <t>Priya Ghavne</t>
+    <t>Snehal Jalit(TL)</t>
   </si>
 </sst>
 </file>
@@ -776,16 +872,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="17.125" customWidth="1"/>
@@ -802,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -829,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -1095,6 +1192,41 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD9A3C-C732-48D9-B56A-6A01E4FD4E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F456DB8-ADBB-49FE-9675-F4FB981AC90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -443,7 +443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -872,11 +872,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1230,6 +1230,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F456DB8-ADBB-49FE-9675-F4FB981AC90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80EEE35-578C-424B-A24D-BBFCF7996FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -438,12 +438,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{F9EF1F88-3AEB-4D59-A669-71AA8DB372FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to some work</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{1FAE78B7-5892-44D0-B93D-7EADFEEA40D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to some work</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -872,11 +920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1265,6 +1313,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80EEE35-578C-424B-A24D-BBFCF7996FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E3B95B-7021-48F3-A4F9-0902216FAC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -491,7 +491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -920,11 +920,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1348,6 +1348,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45154</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E3B95B-7021-48F3-A4F9-0902216FAC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6F093-CD82-4C02-89B4-1D443EFC76E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -486,12 +486,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="K14" authorId="0" shapeId="0" xr:uid="{4F6AA23A-6ED5-44E8-B355-341118E00959}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+due to some work</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -920,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1383,6 +1407,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A6F093-CD82-4C02-89B4-1D443EFC76E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433FFFAB-B6CE-4B9F-9865-0CAB1C11E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -944,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1442,6 +1442,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433FFFAB-B6CE-4B9F-9865-0CAB1C11E2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E1390-548F-4064-B6D8-65B215096628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -944,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1477,6 +1477,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E1390-548F-4064-B6D8-65B215096628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3846EAB-EF14-4766-865E-A9121CF9EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -944,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1512,6 +1512,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3846EAB-EF14-4766-865E-A9121CF9EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60241906-6D13-49B9-AFC2-78074641A11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
   <sheets>
     <sheet name="ANG B8-B1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -944,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1547,6 +1547,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60241906-6D13-49B9-AFC2-78074641A11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F2049-61A9-4394-887E-ED4C9F86AF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -944,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1582,6 +1582,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45164</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32F2049-61A9-4394-887E-ED4C9F86AF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776973B-EB94-428C-AAD6-A172DDB1E362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -510,12 +510,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{81055784-EAF7-417E-85D8-ADD7D9E6FE86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to some medical reason</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0" xr:uid="{012EF258-007B-4499-A1AC-A14E353C19AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+office work</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -944,11 +992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1617,6 +1665,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776973B-EB94-428C-AAD6-A172DDB1E362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03BCA7E-F164-4B95-A089-001F932FF4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -558,12 +558,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="K21" authorId="0" shapeId="0" xr:uid="{28FA017B-F86C-49AF-9F78-52FE2E1554A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Due to office</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -992,11 +1016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1700,6 +1724,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45167</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03BCA7E-F164-4B95-A089-001F932FF4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1F0521-E864-46B0-8186-01799BD15560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
@@ -587,7 +587,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -1016,11 +1016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1759,6 +1759,41 @@
         <v>9</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">

--- a/Team_Everyday_Attendence (B8-G2).xlsx
+++ b/Team_Everyday_Attendence (B8-G2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\React\Js-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1F0521-E864-46B0-8186-01799BD15560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22554207-7984-4C9E-AE5E-E81379FE2F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B014E2FF-8A25-5D4B-81D2-BF942392318A}"/>
   </bookViews>
   <sheets>
     <sheet name="ANG B8-B1" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -1016,11 +1016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B6599-6209-4249-B0C6-73BAEC4B8C71}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1794,6 +1794,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45170</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <dataValidations count="2">
